--- a/tspi/ciclo-3/plan3-20106065.xlsx
+++ b/tspi/ciclo-3/plan3-20106065.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Configurar el repositorio local de la aplicación.</t>
+  </si>
+  <si>
+    <t>Actualizaciones al plan del proyecto</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
   <dimension ref="A1:ALY23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -17423,7 +17426,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
@@ -17481,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F7" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f t="shared" ref="F2:F10" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>27</v>
       </c>
       <c r="G2" s="20">
@@ -17624,28 +17627,82 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="26"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="21"/>
+      <c r="A8" s="26">
+        <v>41942</v>
+      </c>
+      <c r="B8" s="21">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E8" s="21">
+        <v>20</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="27"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
-      <c r="H9" s="9"/>
+      <c r="A9" s="27">
+        <v>41943</v>
+      </c>
+      <c r="B9" s="21">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G9" s="20">
+        <v>49</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="27"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="18"/>
-      <c r="H10" s="9"/>
+    <row r="10" spans="1:8" ht="25.5">
+      <c r="A10" s="27">
+        <v>41943</v>
+      </c>
+      <c r="B10" s="21">
+        <v>6</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G10" s="20">
+        <v>50</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="27"/>

--- a/tspi/ciclo-3/plan3-20106065.xlsx
+++ b/tspi/ciclo-3/plan3-20106065.xlsx
@@ -134,7 +134,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,6 +160,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -282,6 +288,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17426,7 +17433,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
@@ -17585,7 +17592,7 @@
       <c r="D6" s="17">
         <v>0.35972222222222222</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="32">
         <v>13</v>
       </c>
       <c r="F6" s="15">
@@ -17705,9 +17712,15 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="27"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="27">
+        <v>41944</v>
+      </c>
+      <c r="B11" s="21">
+        <v>6</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.63958333333333328</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="21"/>
       <c r="F11" s="18"/>

--- a/tspi/ciclo-3/plan3-20106065.xlsx
+++ b/tspi/ciclo-3/plan3-20106065.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\pucmm\isc-434-t\ppr\tspi\ciclo-3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="task" sheetId="2" r:id="rId2"/>
     <sheet name="logt" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Id</t>
   </si>
@@ -93,9 +98,6 @@
     <t>Asigné las tareas de la primera parte del plan del ciclo #3.</t>
   </si>
   <si>
-    <t>Elaborar el plan del ciclo #3 de TSPi.</t>
-  </si>
-  <si>
     <t>Completar el mockup de la vista de calendarización.</t>
   </si>
   <si>
@@ -105,36 +107,147 @@
     <t>Elaborar el mockup de la vista para ver la calendarización de uno o más recursos.</t>
   </si>
   <si>
-    <t>Elaborar el pseudocódigo del algoritmo de calendarización.</t>
-  </si>
-  <si>
-    <t>Elaborar el algoritmo de construcción del grafo a partir del archivo csv.</t>
-  </si>
-  <si>
-    <t>Configurar el repositorio global de la aplicación.</t>
-  </si>
-  <si>
     <t>Crear la agenda para la reunión #4 con el cliente.</t>
   </si>
   <si>
     <t>Reunión #4 con el cliente.</t>
   </si>
   <si>
-    <t>Configurar el repositorio local de la aplicación.</t>
+    <t>Actualizaciones al plan del proyecto</t>
   </si>
   <si>
-    <t>Actualizaciones al plan del proyecto</t>
+    <t>Complete el plan del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Creé la agenda para la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Versión final del mokcup de la vista para la asignación de la disponibilidad de los recursos.</t>
+  </si>
+  <si>
+    <t>Elaborar el mockup para la creación de un proyecto.</t>
+  </si>
+  <si>
+    <t>Realizar el lanzamiento del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma INFO. El equipo llego a un acuerdo con los goles del ciclo 1 y la fecha en que serán entregados los reportes semanales.</t>
+  </si>
+  <si>
+    <t>Definir la estrategía de desarrolo del ciclo #3.</t>
+  </si>
+  <si>
+    <t>El equipo estimó el tamaño y el tiempo de producción de los elementos a producir en el ciclo #1. El equipo definió actualizó el diseño conceptual del proyecto y completó la forma STRAT. El equipo actualizó el documento los riesgos y problemas.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Se completaron las formas TASK y SCHEDULE para el equipo y cada miembro de este. El equipo completo las formas SUMP, SUMQ y SUMS.</t>
+  </si>
+  <si>
+    <t>Elaborar el mokcup de la vista para la creación de un proyecto.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para la creación de un proyecto.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para la asignación de la disponibilidad de los recursos.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para ver la calendarización de uno o más recursos.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Elaborar el mockup de la vista para ver los eventos o excepciones de los recursos.</t>
+  </si>
+  <si>
+    <t>Se elaboró el mockup de la vista para ver los eventos o excepciones de los recursos.</t>
+  </si>
+  <si>
+    <t>Calcular el tiempo de corrida del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Se documentó el tiempo de corrida del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el pseudocódigo del algoritmo de construcción de la estructura de calendarización a partir del archivo CSV.</t>
+  </si>
+  <si>
+    <t>Se elaboró el pseudocódigo del algoritmo de construcción de la estructura de calendarización a partir del archivo CSV.</t>
+  </si>
+  <si>
+    <t>Configurar el ambiente global de desarrollo.</t>
+  </si>
+  <si>
+    <t>Se elaboró una guía con todos los pasos para la configuración del ambiente global de desarrollo.</t>
+  </si>
+  <si>
+    <t>Configurar el ambiente local de desarrollo.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo configuró su ambiente local de desarrollo.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan de calidad.</t>
+  </si>
+  <si>
+    <t>Elaborar la versión final del diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Se elaboró la versión final del diagrama de flujo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar la versión final del modelo físico de data.</t>
+  </si>
+  <si>
+    <t>Se elaboró la versión final del modelo físico de data.</t>
+  </si>
+  <si>
+    <t>Elaborar la versión final del diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Se elaboró la versión final del diagrama de contexto de la arquitectura.</t>
+  </si>
+  <si>
+    <t>Crear la versión final del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Se creó la versión final del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Crear la agenda para la reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la agenda para la reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Se creó la minuta de la reunión #5 con el cliente.</t>
+  </si>
+  <si>
+    <t>Elaborar el reporte de cierre del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,12 +273,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -217,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -288,7 +395,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,11 +469,19 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,9 +555,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,6 +590,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -650,14 +766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="7" customWidth="1"/>
@@ -669,7 +785,7 @@
     <col min="1014" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75">
+    <row r="1" spans="1:1013" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,18 +821,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013" ht="25.5">
-      <c r="A2" s="8">
+    <row r="2" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>46</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E2" s="10">
         <v>5</v>
@@ -1742,18 +1858,18 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013" ht="25.5">
-      <c r="A3" s="8">
+    <row r="3" spans="1:1013" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>47</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="10">
         <v>5</v>
@@ -2779,18 +2895,18 @@
       <c r="ALX3" s="4"/>
       <c r="ALY3" s="4"/>
     </row>
-    <row r="4" spans="1:1013">
-      <c r="A4" s="8">
+    <row r="4" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>48</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E4" s="10">
         <v>2</v>
@@ -3816,18 +3932,18 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013" ht="25.5">
-      <c r="A5" s="8">
+    <row r="5" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="10">
         <v>2</v>
@@ -3840,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
         <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -4853,21 +4969,21 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013" ht="38.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>50</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="11">
         <v>6</v>
@@ -4877,10 +4993,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
         <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -5890,37 +6006,37 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013" ht="25.5">
-      <c r="A7" s="8">
+    <row r="7" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>51</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="11">
         <v>6</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
       </c>
       <c r="K7" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -6927,21 +7043,21 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013" ht="25.5">
-      <c r="A8" s="8">
+    <row r="8" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>52</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E8" s="10">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="11">
         <v>6</v>
@@ -6954,13 +7070,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="4">
         <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>1.5</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -7964,28 +8080,28 @@
       <c r="ALX8" s="4"/>
       <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013" ht="25.5">
-      <c r="A9" s="8">
+    <row r="9" spans="1:1013" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>53</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E9" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="11">
         <v>6</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
@@ -7994,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -9001,21 +9117,21 @@
       <c r="ALX9" s="4"/>
       <c r="ALY9" s="4"/>
     </row>
-    <row r="10" spans="1:1013" ht="25.5">
-      <c r="A10" s="8">
+    <row r="10" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E10" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="11">
         <v>6</v>
@@ -9025,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
@@ -9034,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -10038,28 +10154,28 @@
       <c r="ALX10" s="4"/>
       <c r="ALY10" s="4"/>
     </row>
-    <row r="11" spans="1:1013" ht="25.5">
-      <c r="A11" s="8">
+    <row r="11" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>55</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="11">
         <v>6</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -10068,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
         <v>0</v>
@@ -11075,21 +11191,21 @@
       <c r="ALX11" s="4"/>
       <c r="ALY11" s="4"/>
     </row>
-    <row r="12" spans="1:1013">
-      <c r="A12" s="8">
+    <row r="12" spans="1:1013" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>56</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="11">
         <v>6</v>
@@ -11099,13 +11215,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" s="4">
         <v>0</v>
@@ -12112,40 +12228,40 @@
       <c r="ALX12" s="4"/>
       <c r="ALY12" s="4"/>
     </row>
-    <row r="13" spans="1:1013" ht="25.5">
-      <c r="A13" s="8">
+    <row r="13" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>57</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -13149,19 +13265,41 @@
       <c r="ALX13" s="4"/>
       <c r="ALY13" s="4"/>
     </row>
-    <row r="14" spans="1:1013">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+    <row r="14" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>58</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="11">
+        <v>7</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="H14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.5</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -14164,19 +14302,41 @@
       <c r="ALX14" s="4"/>
       <c r="ALY14" s="4"/>
     </row>
-    <row r="15" spans="1:1013">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
+    <row r="15" spans="1:1013" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7</v>
+      </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>4</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -15179,19 +15339,41 @@
       <c r="ALX15" s="4"/>
       <c r="ALY15" s="4"/>
     </row>
-    <row r="16" spans="1:1013">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
+    <row r="16" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>60</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2</v>
+      </c>
+      <c r="F16" s="11">
+        <v>7</v>
+      </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -16194,19 +16376,41 @@
       <c r="ALX16" s="4"/>
       <c r="ALY16" s="4"/>
     </row>
-    <row r="17" spans="1:1013">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
+    <row r="17" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>61</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7</v>
+      </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -17209,72 +17413,182 @@
       <c r="ALX17" s="4"/>
       <c r="ALY17" s="4"/>
     </row>
-    <row r="18" spans="1:1013">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+    <row r="18" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>62</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="11">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:1013">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+    <row r="19" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>63</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="10">
+        <v>9</v>
+      </c>
+      <c r="F19" s="11">
+        <v>7</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:1013">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+    <row r="20" spans="1:1013" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>64</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>7</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:1013">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+    <row r="21" spans="1:1013" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>65</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2</v>
+      </c>
+      <c r="F21" s="11">
+        <v>7</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:1013">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+    <row r="22" spans="1:1013" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>66</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:1013">
+    <row r="23" spans="1:1013" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -17298,14 +17612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.140625" style="5"/>
@@ -17313,7 +17627,7 @@
     <col min="1025" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" customHeight="1">
+    <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17324,7 +17638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>46</v>
       </c>
@@ -17336,7 +17650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>47</v>
       </c>
@@ -17348,75 +17662,119 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+    <row r="4" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4">
+        <f>SUMIF(logt!$G:$G,A4,logt!$F:$F)/60</f>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="C4" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" s="12" customFormat="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="28"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUMIF(logt!$G:$G,A5,logt!$F:$F)/60</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4">
+        <f>SUMIF(logt!$G:$G,A6,logt!$F:$F)/60</f>
+        <v>7.2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4">
+        <f>SUMIF(logt!$G:$G,A7,logt!$F:$F)/60</f>
+        <v>1.65</v>
+      </c>
+      <c r="C7" s="28">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" s="12" customFormat="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="28"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4">
+        <f>SUMIF(logt!$G:$G,A8,logt!$F:$F)/60</f>
+        <v>1.6333333333333333</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4">
+        <f>SUMIF(logt!$G:$G,A9,logt!$F:$F)/60</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUMIF(logt!$G:$G,A10,logt!$F:$F)/60</f>
+        <v>1.6833333333333333</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -17429,14 +17787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.140625" style="22" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="20" customWidth="1"/>
@@ -17448,7 +17806,7 @@
     <col min="9" max="16384" width="11.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5">
+    <row r="1" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -17474,7 +17832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>41938</v>
       </c>
@@ -17491,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F10" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f t="shared" ref="F2:F17" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>27</v>
       </c>
       <c r="G2" s="20">
@@ -17501,7 +17859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>41938</v>
       </c>
@@ -17528,7 +17886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="22">
         <v>41939</v>
       </c>
@@ -17548,11 +17906,14 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
+      <c r="G4" s="20">
+        <v>48</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="12" customFormat="1">
+    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>41939</v>
       </c>
@@ -17579,7 +17940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <v>41940</v>
       </c>
@@ -17592,7 +17953,7 @@
       <c r="D6" s="17">
         <v>0.35972222222222222</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="21">
         <v>13</v>
       </c>
       <c r="F6" s="15">
@@ -17606,7 +17967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <v>41941</v>
       </c>
@@ -17630,10 +17991,10 @@
         <v>49</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="26">
         <v>41942</v>
       </c>
@@ -17653,38 +18014,41 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
+      <c r="G8" s="20">
+        <v>48</v>
+      </c>
       <c r="H8" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="27">
-        <v>41943</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>41942</v>
       </c>
       <c r="B9" s="21">
         <v>6</v>
       </c>
       <c r="C9" s="17">
-        <v>0.33611111111111108</v>
+        <v>0.85069444444444453</v>
       </c>
       <c r="D9" s="17">
-        <v>0.36319444444444443</v>
+        <v>0.86249999999999993</v>
       </c>
       <c r="E9" s="21">
         <v>0</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G9" s="20">
-        <v>49</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>26</v>
+        <v>52</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>41943</v>
       </c>
@@ -17692,98 +18056,225 @@
         <v>6</v>
       </c>
       <c r="C10" s="17">
-        <v>0.36458333333333331</v>
+        <v>0.33611111111111108</v>
       </c>
       <c r="D10" s="17">
-        <v>0.39166666666666666</v>
+        <v>0.36319444444444443</v>
       </c>
       <c r="E10" s="21">
         <v>0</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="G10" s="20">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
-        <v>41944</v>
+        <v>41943</v>
       </c>
       <c r="B11" s="21">
         <v>6</v>
       </c>
       <c r="C11" s="17">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G11" s="20">
+        <v>50</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <v>41943</v>
+      </c>
+      <c r="B12" s="21">
+        <v>6</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.65486111111111112</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G12" s="20">
+        <v>53</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>41944</v>
+      </c>
+      <c r="B13" s="21">
+        <v>6</v>
+      </c>
+      <c r="C13" s="17">
         <v>0.63958333333333328</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="18"/>
+      <c r="D13" s="17">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E13" s="21">
+        <v>15</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G13" s="20">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="27"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="18"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>41944</v>
+      </c>
+      <c r="B14" s="21">
+        <v>6</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.71319444444444446</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G14" s="20">
+        <v>49</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="26"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="18"/>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
+        <v>41944</v>
+      </c>
+      <c r="B15" s="21">
+        <v>6</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="E15" s="21">
+        <v>4</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G15" s="20">
+        <v>51</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="26"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="18"/>
+    <row r="16" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
+        <v>41944</v>
+      </c>
+      <c r="B16" s="21">
+        <v>6</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="E16" s="21">
+        <v>13</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="G16" s="20">
+        <v>56</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="26"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="18"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="26">
+        <v>41947</v>
+      </c>
+      <c r="B17" s="21">
+        <v>7</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.40625</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.44236111111111115</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="G17" s="20">
+        <v>48</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="26"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="18"/>
+    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="16"/>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="26"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="21"/>
       <c r="C21" s="17"/>
@@ -17791,7 +18282,7 @@
       <c r="E21" s="21"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="21"/>
       <c r="C22" s="17"/>
@@ -17799,7 +18290,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="21"/>
       <c r="C23" s="17"/>
@@ -17807,7 +18298,7 @@
       <c r="E23" s="21"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="21"/>
       <c r="C24" s="17"/>
@@ -17815,7 +18306,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="21"/>
       <c r="C25" s="17"/>
@@ -17823,7 +18314,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="21"/>
       <c r="C26" s="17"/>
@@ -17831,7 +18322,7 @@
       <c r="E26" s="21"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="21"/>
       <c r="C27" s="17"/>
@@ -17839,7 +18330,7 @@
       <c r="E27" s="21"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="21"/>
       <c r="C28" s="17"/>
@@ -17847,7 +18338,7 @@
       <c r="E28" s="21"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="21"/>
       <c r="C29" s="17"/>
@@ -17855,7 +18346,7 @@
       <c r="E29" s="21"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="21"/>
       <c r="C30" s="17"/>
@@ -17863,7 +18354,7 @@
       <c r="E30" s="21"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="21"/>
       <c r="C31" s="17"/>
@@ -17871,7 +18362,7 @@
       <c r="E31" s="21"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="21"/>
       <c r="C32" s="17"/>
@@ -17879,7 +18370,7 @@
       <c r="E32" s="21"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="21"/>
       <c r="C33" s="17"/>
@@ -17887,7 +18378,7 @@
       <c r="E33" s="21"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="21"/>
       <c r="C34" s="17"/>
@@ -17895,13 +18386,21 @@
       <c r="E34" s="21"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="21"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="21"/>
       <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="26"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/tspi/ciclo-3/plan3-20106065.xlsx
+++ b/tspi/ciclo-3/plan3-20106065.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\pucmm\isc-434-t\ppr\tspi\ciclo-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecvasro\workspace\github\PPR\tspi\ciclo-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>Cada miembro del equipo completó la forma PEER. Se creó el reporte del ciclo correspondiente. Se completaron las formas SUMP y SUMQ para el sistema y todos sus componentes.</t>
+  </si>
+  <si>
+    <t>Configure el ambiente local de desarrollo.</t>
+  </si>
+  <si>
+    <t>Trabaje en la versión final del documento de arquitectura.</t>
+  </si>
+  <si>
+    <t>Actualizando las graficas generales del plan del proyecto.</t>
+  </si>
+  <si>
+    <t>Conociendo el funcionamiento de redmine e importer.</t>
   </si>
 </sst>
 </file>
@@ -734,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12221,7 +12233,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12352,14 +12364,28 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="4">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4">
+        <f>SUMIF(logt!$G:$G,A11,logt!$F:$F)/60</f>
+        <v>4.4333333333333336</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="4">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUMIF(logt!$G:$G,A12,logt!$F:$F)/60</f>
+        <v>4.25</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
@@ -12396,10 +12422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12457,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F17" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f t="shared" ref="F2:F22" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>27</v>
       </c>
       <c r="G2" s="20">
@@ -12872,31 +12898,134 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="16"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>41951</v>
+      </c>
+      <c r="B18" s="20">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="E18" s="20">
+        <v>43</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="G18" s="20">
+        <v>58</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="18"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="22">
+        <v>41920</v>
+      </c>
+      <c r="B19" s="20">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.97361111111111109</v>
+      </c>
+      <c r="E19" s="20">
+        <v>12</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <v>41924</v>
+      </c>
+      <c r="B20" s="20">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.76597222222222217</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="G20" s="20">
+        <v>63</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>41925</v>
+      </c>
+      <c r="B21" s="25">
+        <v>8</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="E21" s="25">
+        <v>20</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="G21" s="25">
+        <v>63</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="26">
+        <v>41925</v>
+      </c>
+      <c r="B22" s="21">
+        <v>8</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.60833333333333328</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
@@ -13010,6 +13139,14 @@
       <c r="E36" s="21"/>
       <c r="F36" s="18"/>
     </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="26"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/tspi/ciclo-3/plan3-20106065.xlsx
+++ b/tspi/ciclo-3/plan3-20106065.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -12232,8 +12232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12372,7 +12372,7 @@
         <v>4.4333333333333336</v>
       </c>
       <c r="C11" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -12384,7 +12384,7 @@
         <v>4.25</v>
       </c>
       <c r="C12" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -12424,8 +12424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/tspi/ciclo-3/plan3-20106065.xlsx
+++ b/tspi/ciclo-3/plan3-20106065.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="1"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -186,12 +186,6 @@
   </si>
   <si>
     <t>Configure el ambiente local de desarrollo.</t>
-  </si>
-  <si>
-    <t>Trabaje en la versión final del documento de arquitectura.</t>
-  </si>
-  <si>
-    <t>Actualizando las graficas generales del plan del proyecto.</t>
   </si>
   <si>
     <t>Conociendo el funcionamiento de redmine e importer.</t>
@@ -746,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALY13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12232,7 +12226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -12381,7 +12375,7 @@
       </c>
       <c r="B12" s="4">
         <f>SUMIF(logt!$G:$G,A12,logt!$F:$F)/60</f>
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="C12" s="4">
         <v>7</v>
@@ -12425,7 +12419,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A20" sqref="A20:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12483,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F22" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f>((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>27</v>
       </c>
       <c r="G2" s="20">
@@ -12510,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D3)-HOUR(C3))*60)+(MINUTE(D3)-MINUTE(C3))-E3</f>
         <v>40</v>
       </c>
       <c r="G3" s="20">
@@ -12537,7 +12531,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D4)-HOUR(C4))*60)+(MINUTE(D4)-MINUTE(C4))-E4</f>
         <v>160</v>
       </c>
       <c r="G4" s="20">
@@ -12564,7 +12558,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="15">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D5)-HOUR(C5))*60)+(MINUTE(D5)-MINUTE(C5))-E5</f>
         <v>45</v>
       </c>
       <c r="G5" s="25">
@@ -12591,7 +12585,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="15">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D6)-HOUR(C6))*60)+(MINUTE(D6)-MINUTE(C6))-E6</f>
         <v>40</v>
       </c>
       <c r="G6" s="20">
@@ -12618,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="15">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D7)-HOUR(C7))*60)+(MINUTE(D7)-MINUTE(C7))-E7</f>
         <v>30</v>
       </c>
       <c r="G7" s="20">
@@ -12645,7 +12639,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D8)-HOUR(C8))*60)+(MINUTE(D8)-MINUTE(C8))-E8</f>
         <v>135</v>
       </c>
       <c r="G8" s="20">
@@ -12672,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D9)-HOUR(C9))*60)+(MINUTE(D9)-MINUTE(C9))-E9</f>
         <v>17</v>
       </c>
       <c r="G9" s="20">
@@ -12699,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D10)-HOUR(C10))*60)+(MINUTE(D10)-MINUTE(C10))-E10</f>
         <v>39</v>
       </c>
       <c r="G10" s="20">
@@ -12726,7 +12720,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D11)-HOUR(C11))*60)+(MINUTE(D11)-MINUTE(C11))-E11</f>
         <v>39</v>
       </c>
       <c r="G11" s="20">
@@ -12753,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D12)-HOUR(C12))*60)+(MINUTE(D12)-MINUTE(C12))-E12</f>
         <v>33</v>
       </c>
       <c r="G12" s="20">
@@ -12780,7 +12774,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="18">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D13)-HOUR(C13))*60)+(MINUTE(D13)-MINUTE(C13))-E13</f>
         <v>59</v>
       </c>
       <c r="G13" s="20">
@@ -12807,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="18">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D14)-HOUR(C14))*60)+(MINUTE(D14)-MINUTE(C14))-E14</f>
         <v>30</v>
       </c>
       <c r="G14" s="20">
@@ -12834,7 +12828,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="18">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D15)-HOUR(C15))*60)+(MINUTE(D15)-MINUTE(C15))-E15</f>
         <v>69</v>
       </c>
       <c r="G15" s="20">
@@ -12861,7 +12855,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="18">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D16)-HOUR(C16))*60)+(MINUTE(D16)-MINUTE(C16))-E16</f>
         <v>101</v>
       </c>
       <c r="G16" s="20">
@@ -12888,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D17)-HOUR(C17))*60)+(MINUTE(D17)-MINUTE(C17))-E17</f>
         <v>52</v>
       </c>
       <c r="G17" s="20">
@@ -12915,7 +12909,7 @@
         <v>43</v>
       </c>
       <c r="F18" s="18">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D18)-HOUR(C18))*60)+(MINUTE(D18)-MINUTE(C18))-E18</f>
         <v>266</v>
       </c>
       <c r="G18" s="20">
@@ -12942,89 +12936,11 @@
         <v>12</v>
       </c>
       <c r="F19" s="18">
-        <f t="shared" si="0"/>
+        <f>((HOUR(D19)-HOUR(C19))*60)+(MINUTE(D19)-MINUTE(C19))-E19</f>
         <v>130</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
-        <v>41924</v>
-      </c>
-      <c r="B20" s="20">
-        <v>8</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.76597222222222217</v>
-      </c>
-      <c r="E20" s="20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="G20" s="20">
-        <v>63</v>
-      </c>
-      <c r="H20" s="7" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <v>41925</v>
-      </c>
-      <c r="B21" s="25">
-        <v>8</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0.375</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="E21" s="25">
-        <v>20</v>
-      </c>
-      <c r="F21" s="15">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="G21" s="25">
-        <v>63</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="26">
-        <v>41925</v>
-      </c>
-      <c r="B22" s="21">
-        <v>8</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0.60833333333333328</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0.65069444444444446</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
